--- a/daily_status/rahamatha_skill_set.xlsx
+++ b/daily_status/rahamatha_skill_set.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rahamatha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FE60E0-8FD0-4E60-8EB4-9915CE3D8F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C25C22D-91DF-420A-BB28-7E4885499A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{511EC6BB-F43C-4269-8E2A-22E6ED4CABCF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>concepts</t>
   </si>
@@ -178,6 +178,36 @@
   </si>
   <si>
     <t>completed</t>
+  </si>
+  <si>
+    <t>appends(concatination)</t>
+  </si>
+  <si>
+    <t>dataframes</t>
+  </si>
+  <si>
+    <t>merge</t>
+  </si>
+  <si>
+    <t>GITHUB</t>
+  </si>
+  <si>
+    <t>git clone</t>
+  </si>
+  <si>
+    <t>git push , pull</t>
+  </si>
+  <si>
+    <t>git merge</t>
+  </si>
+  <si>
+    <t>git rebase</t>
+  </si>
+  <si>
+    <t>git fetch</t>
+  </si>
+  <si>
+    <t>git stash</t>
   </si>
 </sst>
 </file>
@@ -539,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB163916-93E6-4587-97A2-428AE45E9D68}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,7 +819,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
@@ -797,48 +827,126 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
       <c r="B37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
       <c r="B38" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
       <c r="B39" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
       <c r="B40" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
       <c r="B41" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
       <c r="B42" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
       <c r="B43" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
       <c r="B44" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:A35"/>
+    <mergeCell ref="A36:A48"/>
+    <mergeCell ref="A49:A54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/daily_status/rahamatha_skill_set.xlsx
+++ b/daily_status/rahamatha_skill_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B671D787-F8A2-4928-AF76-DF24A81158DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9C8516-46DE-46E6-8B4B-9245D0D66477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{511EC6BB-F43C-4269-8E2A-22E6ED4CABCF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{511EC6BB-F43C-4269-8E2A-22E6ED4CABCF}"/>
   </bookViews>
   <sheets>
     <sheet name="sql" sheetId="1" r:id="rId1"/>
@@ -630,7 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB163916-93E6-4587-97A2-428AE45E9D68}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1312,7 +1312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A8FE88-79B7-4247-B876-ACBB14677A54}">
   <dimension ref="A33:A54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>

--- a/daily_status/rahamatha_skill_set.xlsx
+++ b/daily_status/rahamatha_skill_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9C8516-46DE-46E6-8B4B-9245D0D66477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAB2273-A0A7-44EB-A8FF-97CC579D5AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{511EC6BB-F43C-4269-8E2A-22E6ED4CABCF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{511EC6BB-F43C-4269-8E2A-22E6ED4CABCF}"/>
   </bookViews>
   <sheets>
     <sheet name="sql" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>concepts</t>
   </si>
@@ -244,6 +244,15 @@
   </si>
   <si>
     <t>sub concepts</t>
+  </si>
+  <si>
+    <t>1.creating project</t>
+  </si>
+  <si>
+    <t>2. prepare</t>
+  </si>
+  <si>
+    <t>3.Group</t>
   </si>
 </sst>
 </file>
@@ -630,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB163916-93E6-4587-97A2-428AE45E9D68}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,6 +845,9 @@
       <c r="B18" t="s">
         <v>26</v>
       </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -855,6 +867,9 @@
       <c r="B20" t="s">
         <v>5</v>
       </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -917,6 +932,9 @@
       </c>
       <c r="B26" t="s">
         <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1057,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD988564-2822-443E-AC61-2ECA72CF22C9}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1095,28 +1113,55 @@
       <c r="A5" t="s">
         <v>63</v>
       </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>65</v>
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>66</v>
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:A8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1125,7 +1170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22952897-B535-415D-BC80-30E05D3C5734}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/daily_status/rahamatha_skill_set.xlsx
+++ b/daily_status/rahamatha_skill_set.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAB2273-A0A7-44EB-A8FF-97CC579D5AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BED34C-7AE0-45E4-AAA9-C11E6FD6AE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{511EC6BB-F43C-4269-8E2A-22E6ED4CABCF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t>concepts</t>
   </si>
@@ -253,6 +253,15 @@
   </si>
   <si>
     <t>3.Group</t>
+  </si>
+  <si>
+    <t>4. join</t>
+  </si>
+  <si>
+    <t>5.sync</t>
+  </si>
+  <si>
+    <t>6.filter</t>
   </si>
 </sst>
 </file>
@@ -1075,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD988564-2822-443E-AC61-2ECA72CF22C9}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1142,25 +1151,52 @@
       <c r="B8" t="s">
         <v>71</v>
       </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A6:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
